--- a/003_グループ演習延長戦/002_表置き場/002_第6章_セキュリティ保証要件の表.xlsx
+++ b/003_グループ演習延長戦/002_表置き場/002_第6章_セキュリティ保証要件の表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaida\Documents\GitHub\aiit_006_secspecial_02\003_グループ演習延長戦\002_表置き場\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{705E1315-3EAB-4D79-B21B-1E67773DE09C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FCFFAC5-A48A-49F8-9179-9E0D25355E24}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{0020CBEB-E70E-2A47-8BAA-628767B974FB}"/>
   </bookViews>
@@ -196,25 +196,13 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF6F8FA"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -365,45 +353,39 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -722,7 +704,7 @@
   <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.4"/>
@@ -733,15 +715,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -749,121 +731,121 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A3" s="9"/>
+      <c r="A3" s="4"/>
       <c r="B3" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A4" s="9"/>
-      <c r="B4" s="7" t="s">
+      <c r="A4" s="4"/>
+      <c r="B4" s="6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A5" s="10"/>
+      <c r="A5" s="7"/>
       <c r="B5" s="6" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A7" s="11"/>
+      <c r="A7" s="8"/>
       <c r="B7" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A9" s="11"/>
+      <c r="A9" s="8"/>
       <c r="B9" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A10" s="11"/>
-      <c r="B10" s="7" t="s">
+      <c r="A10" s="8"/>
+      <c r="B10" s="6" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A11" s="11"/>
+      <c r="A11" s="8"/>
       <c r="B11" s="6" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A12" s="11"/>
-      <c r="B12" s="7" t="s">
+      <c r="A12" s="8"/>
+      <c r="B12" s="6" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A13" s="11"/>
+      <c r="A13" s="8"/>
       <c r="B13" s="6" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="6" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A15" s="11"/>
+      <c r="A15" s="8"/>
       <c r="B15" s="6" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A16" s="11"/>
-      <c r="B16" s="7" t="s">
+      <c r="A16" s="8"/>
+      <c r="B16" s="6" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A17" s="11"/>
+      <c r="A17" s="8"/>
       <c r="B17" s="6" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A18" s="11"/>
-      <c r="B18" s="7" t="s">
+      <c r="A18" s="8"/>
+      <c r="B18" s="6" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A19" s="11"/>
+      <c r="A19" s="8"/>
       <c r="B19" s="6" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A20" s="11"/>
-      <c r="B20" s="7" t="s">
+      <c r="A20" s="8"/>
+      <c r="B20" s="6" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B21" s="6" t="s">
@@ -871,28 +853,28 @@
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A22" s="12"/>
-      <c r="B22" s="7" t="s">
+      <c r="A22" s="8"/>
+      <c r="B22" s="6" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A23" s="12"/>
+      <c r="A23" s="8"/>
       <c r="B23" s="6" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A24" s="12"/>
-      <c r="B24" s="7" t="s">
+      <c r="A24" s="8"/>
+      <c r="B24" s="6" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="10" t="s">
         <v>31</v>
       </c>
     </row>
